--- a/template/bicu.xlsx
+++ b/template/bicu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Program\excel_worker\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ExcelWorker\program\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8589BE52-82C8-4A73-89BB-67C151B2E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD94EBC-BB7F-439A-ACC6-1C2B26FE00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Декабрь" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Январь!$A$7:$AC$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Январь!$A$7:$AB$24</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Процент потерь электроэнергии в сетях</t>
-  </si>
-  <si>
-    <t>Индекс точки присоединения</t>
   </si>
   <si>
     <t>Постоянные потери электроэнергии, кВт*ч</t>
@@ -404,22 +401,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,6 +411,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1132,11 +1129,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AC7"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1159,134 +1156,130 @@
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1296,35 +1289,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1371,11 +1363,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1422,11 +1413,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1473,9 +1463,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1560,11 +1549,8 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="11"/>
@@ -1593,9 +1579,8 @@
       <c r="Z8" s="13"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="N9" s="8"/>
       <c r="U9" s="9"/>
@@ -1604,7 +1589,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="N10" s="8"/>
       <c r="U10" s="9"/>
@@ -1613,7 +1598,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="N11" s="8"/>
       <c r="U11" s="9"/>
@@ -1621,7 +1606,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="N12" s="8"/>
       <c r="U12" s="9"/>
@@ -1629,7 +1614,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="N13" s="8"/>
       <c r="U13" s="9"/>
@@ -1637,7 +1622,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="N14" s="8"/>
       <c r="U14" s="9"/>
@@ -1645,7 +1630,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="N15" s="8"/>
       <c r="U15" s="9"/>
@@ -1653,7 +1638,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="N16" s="8"/>
       <c r="U16" s="9"/>
@@ -1726,23 +1711,8 @@
       <c r="Z24" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:AC24" xr:uid="{FE645BF4-5379-49C4-94D6-7059782798B2}"/>
-  <mergeCells count="30">
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AC1:AC3"/>
+  <autoFilter ref="A7:AB24" xr:uid="{FE645BF4-5379-49C4-94D6-7059782798B2}"/>
+  <mergeCells count="29">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:H2"/>
@@ -1758,6 +1728,20 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="L1:T1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1768,142 +1752,138 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92DDF18-F837-4D25-9B35-6CFEEA837780}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1913,35 +1893,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1988,11 +1967,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2039,11 +2017,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2090,9 +2067,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2177,12 +2153,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -2194,25 +2185,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2220,142 +2192,138 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E737DACA-5D31-4563-BBAE-DDD12F191401}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2365,35 +2333,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2440,11 +2407,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2491,11 +2457,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2542,9 +2507,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -2629,12 +2593,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -2646,25 +2625,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2672,142 +2632,138 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058F567F-DA7D-4DAE-B74F-1C184FCFEA90}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2817,35 +2773,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2892,11 +2847,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2943,11 +2897,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2994,9 +2947,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3081,27 +3033,9 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="AC1:AC3"/>
+  <mergeCells count="29">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -3117,6 +3051,20 @@
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AA3"/>
     <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3124,142 +3072,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C201695-AA66-4A12-868D-8722C61B38A1}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -3269,35 +3213,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3344,11 +3287,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3395,11 +3337,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3446,9 +3387,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3533,12 +3473,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -3550,25 +3505,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3576,142 +3512,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98A0933-FC60-4663-B9DB-6AD439C2F786}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -3721,35 +3653,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3796,11 +3727,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3847,11 +3777,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3898,9 +3827,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3985,12 +3913,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -4002,25 +3945,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4028,142 +3952,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACD2141-6A03-43B4-8A9B-7039EA096A8A}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -4173,35 +4093,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4248,11 +4167,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4299,11 +4217,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4350,9 +4267,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -4437,12 +4353,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -4454,25 +4385,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4480,142 +4392,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3EC4C7-4A5C-4DBB-8F46-E7A0FC1E1B09}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -4625,35 +4533,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4700,11 +4607,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4751,11 +4657,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4802,9 +4707,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -4889,12 +4793,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -4906,25 +4825,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4932,142 +4832,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2B4587-4ED5-48F5-B3FC-E6D06909EEF7}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -5077,35 +4973,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5152,11 +5047,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5203,11 +5097,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5254,9 +5147,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -5341,12 +5233,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -5358,25 +5265,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5384,142 +5272,138 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986C16FB-ECA6-4F1C-BE31-CCBC9BF6A0A7}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -5529,35 +5413,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5604,11 +5487,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5655,11 +5537,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5706,9 +5587,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -5793,12 +5673,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -5810,25 +5705,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5836,142 +5712,138 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA627D58-4F96-497F-983B-6B44460746A9}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -5981,35 +5853,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6056,11 +5927,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6107,11 +5977,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6158,9 +6027,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -6245,12 +6113,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -6262,25 +6145,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6288,142 +6152,138 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061AECA1-087F-4500-B78B-7CA6F5DFC5C0}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-    </row>
-    <row r="3" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="20"/>
+    </row>
+    <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -6433,35 +6293,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-    </row>
-    <row r="4" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="19"/>
+    </row>
+    <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6508,11 +6367,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6559,11 +6417,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6610,9 +6467,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -6697,12 +6553,27 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -6714,25 +6585,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
